--- a/APF/QA/RA006/QAP001_APF_RA006_APF0601_權限資料Sync.xlsx
+++ b/APF/QA/RA006/QAP001_APF_RA006_APF0601_權限資料Sync.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="270" windowWidth="10920" windowHeight="5610" tabRatio="549" activeTab="1"/>
+    <workbookView xWindow="1395" yWindow="270" windowWidth="10920" windowHeight="5610" tabRatio="549" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="修訂履歷" sheetId="5" r:id="rId1"/>
@@ -4612,7 +4612,7 @@
   </sheetPr>
   <dimension ref="A1:T70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
@@ -5910,7 +5910,7 @@
   </sheetPr>
   <dimension ref="A1:R113"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/APF/QA/RA006/QAP001_APF_RA006_APF0601_權限資料Sync.xlsx
+++ b/APF/QA/RA006/QAP001_APF_RA006_APF0601_權限資料Sync.xlsx
@@ -5,11 +5,11 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a8907010\Documents\suda3g\9. 品質管理\9.3 文件檢視記錄統計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Suda3g\APF\QA\RA006\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="270" windowWidth="10920" windowHeight="5610" tabRatio="549" activeTab="2"/>
+    <workbookView xWindow="1395" yWindow="270" windowWidth="10920" windowHeight="5610" tabRatio="549" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="修訂履歷" sheetId="5" r:id="rId1"/>
@@ -155,7 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="421">
   <si>
     <t>檢視面向</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -2454,50 +2454,85 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>SD PM-3</t>
+  </si>
+  <si>
+    <t>IPO流程圖需加上功能簡述編號</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>如左列所示，以利對照</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>傳勝</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSIS異常通知增加內容說明</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>如左列所示</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功及失敗Log增加內容說明</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>強化</t>
+  </si>
+  <si>
+    <t>陳懿信</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳慕霖</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>懿信、英杰、鈺杰、慕霖</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>英杰、慕霖</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>SD PM-3</t>
-  </si>
-  <si>
-    <t>IPO流程圖需加上功能簡述編號</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>如左列所示，以利對照</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>傳勝</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>SSIS異常通知增加內容說明</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>如左列所示</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功及失敗Log增加內容說明</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>強化</t>
+    <t>慕霖</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SA PM-4</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步權限相關table時，不宜直接truncate 目的地table，會造成使用者查詢時發生錯誤</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>改以ssis merge insert方式，若資料不存在則新增，若資料已存在則update，進行資料同步</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>考慮不足</t>
   </si>
 </sst>
 </file>
@@ -4612,11 +4647,11 @@
   </sheetPr>
   <dimension ref="A1:T70"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="O8" sqref="O8"/>
+      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4746,27 +4781,27 @@
       </c>
       <c r="C5" s="99">
         <f>COUNTIF($C$7:$C$26,"&gt;""")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="108">
         <f>SUM($M$7:$M$26)</f>
-        <v>3.4166666666666625</v>
+        <v>13.416666666666659</v>
       </c>
       <c r="E5" s="99">
         <f>SUM($J$7:$J$26)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F5" s="109">
         <f ca="1">SUM($N$7:$N$26)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G5" s="109">
         <f ca="1">SUM($O$7:$O$26)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H5" s="110">
         <f ca="1">F5-G5</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" s="53"/>
       <c r="J5" s="58"/>
@@ -4945,7 +4980,7 @@
         <v>1</v>
       </c>
       <c r="P8" s="71" t="str">
-        <f t="shared" ref="P8" si="1">IF(Q8="","",LEFT(Q8,FIND("-",Q8)-1))</f>
+        <f t="shared" ref="P8:P10" si="1">IF(Q8="","",LEFT(Q8,FIND("-",Q8)-1))</f>
         <v>SA PM</v>
       </c>
       <c r="Q8" s="71" t="str">
@@ -4989,7 +5024,7 @@
         <v>399</v>
       </c>
       <c r="L9" s="69" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="M9" s="70">
         <f>IF(C9="","",J9*(I9-H9)*24)</f>
@@ -5001,10 +5036,10 @@
       </c>
       <c r="O9" s="63">
         <f>IF(C9="","",COUNTIFS(改善明細!$A:$A,Q9, 改善明細!$J:$J,"V"))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P9" s="71" t="str">
-        <f t="shared" ref="P9" si="2">IF(Q9="","",LEFT(Q9,FIND("-",Q9)-1))</f>
+        <f t="shared" ref="P9:P10" si="2">IF(Q9="","",LEFT(Q9,FIND("-",Q9)-1))</f>
         <v>SD PM</v>
       </c>
       <c r="Q9" s="71" t="str">
@@ -5014,23 +5049,62 @@
       <c r="R9" s="72"/>
     </row>
     <row r="10" spans="1:20" s="55" customFormat="1" ht="16.5">
-      <c r="A10" s="64"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71"/>
+      <c r="A10" s="64" t="s">
+        <v>380</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>379</v>
+      </c>
+      <c r="D10" s="140" t="s">
+        <v>411</v>
+      </c>
+      <c r="E10" s="66">
+        <v>41610</v>
+      </c>
+      <c r="F10" s="140" t="s">
+        <v>412</v>
+      </c>
+      <c r="G10" s="66">
+        <v>41610</v>
+      </c>
+      <c r="H10" s="67">
+        <v>0.5625</v>
+      </c>
+      <c r="I10" s="67">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J10" s="65">
+        <v>4</v>
+      </c>
+      <c r="K10" s="68" t="s">
+        <v>413</v>
+      </c>
+      <c r="L10" s="69" t="s">
+        <v>415</v>
+      </c>
+      <c r="M10" s="70">
+        <f>IF(C10="","",J10*(I10-H10)*24)</f>
+        <v>9.9999999999999964</v>
+      </c>
+      <c r="N10" s="63">
+        <f>IF(C10="","",COUNTIF(改善明細!A:A,Q10))</f>
+        <v>1</v>
+      </c>
+      <c r="O10" s="63">
+        <f>IF(C10="","",COUNTIFS(改善明細!$A:$A,Q10, 改善明細!$J:$J,"V"))</f>
+        <v>1</v>
+      </c>
+      <c r="P10" s="71" t="str">
+        <f t="shared" si="2"/>
+        <v>SA PM</v>
+      </c>
+      <c r="Q10" s="71" t="str">
+        <f>IF(OR(A10="",B10=""),"",A10&amp;"-"&amp;B10)</f>
+        <v>SA PM-4</v>
+      </c>
       <c r="R10" s="74"/>
     </row>
     <row r="11" spans="1:20" s="55" customFormat="1" ht="16.5">
@@ -5878,7 +5952,7 @@
   </sheetData>
   <sheetProtection formatCells="0" selectLockedCells="1"/>
   <phoneticPr fontId="20" type="noConversion"/>
-  <dataValidations count="4">
+  <dataValidations disablePrompts="1" count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E2">
       <formula1>"ALL:PJ全體,HCM:總部共通,HMS:Master,HMSB:Master基本,HMSE:Master活動,HEO:EOS,HIA:情報分析,HIS:情報發信,HAI:AP基盤,HHI:INFRA,HNW:NW,SCM:門市共通,SSC:SC,SPS:POS,SGT:GOT"</formula1>
     </dataValidation>
@@ -5910,11 +5984,11 @@
   </sheetPr>
   <dimension ref="A1:R113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.15" customHeight="1"/>
@@ -6099,25 +6173,25 @@
     </row>
     <row r="5" spans="1:18" s="23" customFormat="1" ht="16.5">
       <c r="A5" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>407</v>
+      </c>
+      <c r="C5" s="42" t="s">
         <v>401</v>
       </c>
-      <c r="B5" s="41" t="s">
-        <v>408</v>
-      </c>
-      <c r="C5" s="42" t="s">
+      <c r="D5" s="43" t="s">
         <v>402</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="E5" s="45" t="s">
         <v>403</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>404</v>
       </c>
       <c r="F5" s="46" t="s">
         <v>388</v>
       </c>
       <c r="G5" s="44" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H5" s="91">
         <v>41593</v>
@@ -6144,37 +6218,39 @@
     </row>
     <row r="6" spans="1:18" s="23" customFormat="1" ht="16.5">
       <c r="A6" s="40" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C6" s="42" t="s">
+        <v>404</v>
+      </c>
+      <c r="D6" s="43" t="s">
         <v>405</v>
       </c>
-      <c r="D6" s="43" t="s">
-        <v>406</v>
-      </c>
       <c r="E6" s="45" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F6" s="46" t="s">
         <v>388</v>
       </c>
       <c r="G6" s="44" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H6" s="91">
         <v>41596</v>
       </c>
-      <c r="I6" s="91"/>
+      <c r="I6" s="91">
+        <v>41610</v>
+      </c>
       <c r="J6" s="89" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>V</v>
       </c>
       <c r="K6" s="89" t="str">
         <f t="shared" si="1"/>
-        <v>V</v>
+        <v/>
       </c>
       <c r="L6" s="90" t="str">
         <f t="shared" si="2"/>
@@ -6187,37 +6263,39 @@
     </row>
     <row r="7" spans="1:18" s="23" customFormat="1" ht="16.5">
       <c r="A7" s="40" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F7" s="46" t="s">
         <v>388</v>
       </c>
       <c r="G7" s="44" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H7" s="91">
         <v>41596</v>
       </c>
-      <c r="I7" s="91"/>
+      <c r="I7" s="91">
+        <v>41610</v>
+      </c>
       <c r="J7" s="89" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>V</v>
       </c>
       <c r="K7" s="89" t="str">
         <f t="shared" si="1"/>
-        <v>V</v>
+        <v/>
       </c>
       <c r="L7" s="90" t="str">
         <f t="shared" si="2"/>
@@ -6228,19 +6306,37 @@
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
     </row>
-    <row r="8" spans="1:18" s="23" customFormat="1" ht="16.5">
-      <c r="A8" s="40"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="91"/>
+    <row r="8" spans="1:18" s="23" customFormat="1" ht="33">
+      <c r="A8" s="40" t="s">
+        <v>416</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>417</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>418</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>419</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>388</v>
+      </c>
+      <c r="G8" s="44" t="s">
+        <v>420</v>
+      </c>
+      <c r="H8" s="91">
+        <v>41611</v>
+      </c>
+      <c r="I8" s="91">
+        <v>41611</v>
+      </c>
       <c r="J8" s="89" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>V</v>
       </c>
       <c r="K8" s="89" t="str">
         <f t="shared" si="1"/>
@@ -6248,7 +6344,7 @@
       </c>
       <c r="L8" s="90" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>SA PM</v>
       </c>
       <c r="M8" s="90"/>
       <c r="N8" s="36"/>
